--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.35</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>007923</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>方正富邦天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>007924</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
+          <t>方正富邦天鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009609</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证500指数增强C</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48.04</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>48.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007923</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>方正富邦天鑫灵活配置混合A</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.75</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007924</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>方正富邦天鑫灵活配置混合C</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.75</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,25 +938,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.84</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.80</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002271</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>77.58</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1136,7 +1137,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -1152,6 +1152,214 @@
       </c>
       <c r="H7" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1365,4 +1366,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1498,4 +1499,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1507,7 +1508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1518,17 +1519,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1538,14 +1559,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1554,14 +1597,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1570,14 +1635,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.54</v>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1586,13 +1673,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1982,7 +1983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,17 +1994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2013,14 +2034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.75</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2029,14 +2072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>265.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2045,14 +2110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1303</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2061,14 +2148,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2077,13 +2186,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2495,7 +2496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2506,17 +2507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2526,14 +2547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.21</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2542,14 +2585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.75</v>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2558,14 +2623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2574,14 +2661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2590,14 +2699,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.54</v>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2606,13 +2737,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>8.609999999999999</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>12.21</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>7.75</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.57</v>
       </c>
     </row>
@@ -600,6 +617,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4744</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517330</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4191</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013365</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014523</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013366</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +2950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2401,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2533,7 +3556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2741,7 +3764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3018,7 +4041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603568-伟明环保.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>10.27</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>8.609999999999999</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>12.21</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>7.75</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.57</v>
       </c>
     </row>
@@ -616,7 +633,841 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014523</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +2473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2438,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2950,7 +3801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3424,7 +4275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3556,7 +4407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3764,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4039,440 +4890,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2840</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0565</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007923</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>方正富邦天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007924</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>方正富邦天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>